--- a/notebook/sample-info.xlsx
+++ b/notebook/sample-info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suliang/Documents/AWS 产品/MyDoc/Metagenomic-Solution/metagenomic-analysis-on-aws/notebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F6266D-D103-7549-B676-F4B84CA00ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245A53BA-664E-B645-A736-70D12492F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29840" yWindow="17340" windowWidth="40180" windowHeight="21800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,103 +20,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>SRX20086738</t>
-  </si>
-  <si>
-    <t>SRX20057804</t>
-  </si>
-  <si>
-    <t>SRX9067618</t>
-  </si>
-  <si>
-    <t>SRX9057531</t>
-  </si>
-  <si>
-    <t>SRX1541123</t>
-  </si>
-  <si>
-    <t>SRX10327318</t>
-  </si>
-  <si>
-    <t>SRX11327569</t>
-  </si>
-  <si>
-    <t>SRX3026668</t>
-  </si>
-  <si>
-    <t>SRX7395133</t>
-  </si>
-  <si>
-    <t>SRX19691865</t>
-  </si>
-  <si>
-    <t>SRX3994562</t>
-  </si>
-  <si>
-    <t>SRX3920985</t>
-  </si>
-  <si>
-    <t>SRX2019691</t>
-  </si>
-  <si>
-    <t>SRX1922493</t>
-  </si>
-  <si>
-    <t>SRX1922459</t>
-  </si>
-  <si>
-    <t>SRX1922415</t>
-  </si>
-  <si>
-    <t>SRX1922320</t>
-  </si>
-  <si>
-    <t>SRX4625177</t>
-  </si>
-  <si>
-    <t>SRX18032383</t>
-  </si>
-  <si>
-    <t>SRX3388744</t>
-  </si>
-  <si>
-    <t>ERX8139976</t>
-  </si>
-  <si>
-    <t>SRX2739932</t>
-  </si>
-  <si>
-    <t>SRX7180581</t>
-  </si>
-  <si>
-    <t>ERX4814033</t>
-  </si>
-  <si>
-    <t>SRX8637968</t>
-  </si>
-  <si>
-    <t>SRX6712329</t>
-  </si>
-  <si>
-    <t>SRX17893468</t>
-  </si>
-  <si>
-    <t>SRX17893458</t>
-  </si>
-  <si>
-    <t>SRX17035991</t>
-  </si>
-  <si>
-    <t>SRX7892010</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Sample</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Total Size, Mb</t>
+    <t>SRR10389015</t>
+  </si>
+  <si>
+    <t>SRR10389008</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRR10389009</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRR10389010</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRR10389011</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRR10389012</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRR10389013</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRR10389014</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1069,264 +1006,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95AFF43-0962-BC4C-B054-0258D6BD0036}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>50.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>50.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5">
-        <v>50.02</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>50.03</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7">
-        <v>50.03</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8">
-        <v>50.03</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>50.03</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>50.04</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>50.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>50.06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13">
-        <v>50.06</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>50.07</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>50.07</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>50.07</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17">
-        <v>50.08</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>50.08</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>50.08</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20">
-        <v>50.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <v>50.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22">
-        <v>50.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23">
-        <v>50.11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>50.12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
         <v>1</v>
-      </c>
-      <c r="B25">
-        <v>50.12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26">
-        <v>50.12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27">
-        <v>50.13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28">
-        <v>50.14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>50.14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30">
-        <v>50.16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31">
-        <v>50.16</v>
       </c>
     </row>
   </sheetData>

--- a/notebook/sample-info.xlsx
+++ b/notebook/sample-info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suliang/Documents/AWS 产品/MyDoc/Metagenomic-Solution/metagenomic-analysis-on-aws/notebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245A53BA-664E-B645-A736-70D12492F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404E0DD5-4C6F-D848-9C39-DA206586FE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29840" yWindow="17340" windowWidth="40180" windowHeight="21800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Sample</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -54,6 +54,10 @@
   </si>
   <si>
     <t>SRR10389014</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1006,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95AFF43-0962-BC4C-B054-0258D6BD0036}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1017,48 +1021,75 @@
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>1</v>
       </c>
     </row>

--- a/notebook/sample-info.xlsx
+++ b/notebook/sample-info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suliang/Documents/AWS 产品/MyDoc/Metagenomic-Solution/metagenomic-analysis-on-aws/notebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404E0DD5-4C6F-D848-9C39-DA206586FE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E3F7AA-95F0-0B41-BE47-676284418547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29840" yWindow="17340" windowWidth="40180" windowHeight="21800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="500" windowWidth="32860" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metagenomic" sheetId="2" r:id="rId1"/>
@@ -20,44 +20,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Sample</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SRR10389015</t>
-  </si>
-  <si>
-    <t>SRR10389008</t>
+    <t>Type</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SRR10389009</t>
+    <t>mud03.2021.01.S</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SRR10389010</t>
+    <t>mud03.2021.01.X</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SRR10389011</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRR10389012</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRR10389013</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRR10389014</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
+    <t>mud03.2021.01.Z</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1010,15 +991,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95AFF43-0962-BC4C-B054-0258D6BD0036}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1026,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1053,46 +1035,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
